--- a/HRM_SYS/media/emp_temp/employee_template.xlsx
+++ b/HRM_SYS/media/emp_temp/employee_template.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="employee" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="attendance" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,394 +439,391 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>emp_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>emp_id</t>
+          <t>first_name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>first_name</t>
+          <t>second_name</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>second_name</t>
+          <t>national_no</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>national_no</t>
+          <t>kra_pin</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>kra_pin</t>
+          <t>email</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>dob</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>dob</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>next_kin_name</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>next_kin_name</t>
+          <t>next_kin_id</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>next_kin_id</t>
+          <t>next_kin_phone</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>next_kin_phone</t>
+          <t>address</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>location</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>office</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>role</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>departments</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>departments</t>
+          <t>education_level</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>education_level</t>
+          <t>doj</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>doj</t>
+          <t>dol</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>dol</t>
+          <t>payroll_settings_id</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>payroll_settings_id</t>
+          <t>account_no</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>account_no</t>
+          <t>bank_name</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>bank_name</t>
+          <t>salary</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>salary</t>
+          <t>allowance</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>allowance</t>
+          <t>add_ons</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>add_ons</t>
+          <t>other_fields</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>other_fields</t>
+          <t>status</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>image</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>Antony</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Antony</t>
+          <t>Kungu</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kungu</t>
+          <t>35704078.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>35704078</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>tonykungu2@gmail.com</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>45192</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>712110972.0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0712110972</t>
+          <t>Maxwell</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Maxwell</t>
+          <t>12458901.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>12458901</t>
+          <t>7899256677.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>07899256677</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>office</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>seller</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>seller</t>
+          <t>sales department</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>sales department</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
           <t>undergraduate</t>
         </is>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>45192</v>
       </c>
       <c r="T2" s="2" t="n">
         <v>45192</v>
       </c>
-      <c r="U2" s="2" t="n">
-        <v>45192</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="U2" t="n">
         <v>3</v>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>20000</v>
       </c>
       <c r="Y2" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>name:value</t>
+          <t>incomplete</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
-        <is>
-          <t>incomplete</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
         <is>
           <t>emp_images/Capture.PNG</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Gathungu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gathungu</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>tonykungu2@gmail.com</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>45194</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>office</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>departments_id</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>departments_id</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>45194</v>
       </c>
       <c r="T3" s="2" t="n">
         <v>45194</v>
       </c>
-      <c r="U3" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="U3" t="n">
         <v>3</v>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -833,35 +831,34 @@
       <c r="Z3" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>name:value</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
         <is>
           <t>emoloyee.png</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -884,14 +881,14 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>45194</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>None</t>
@@ -919,45 +916,43 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>office</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>departments_id</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>departments_id</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>45194</v>
       </c>
       <c r="T4" s="2" t="n">
         <v>45194</v>
       </c>
-      <c r="U4" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="X4" t="n">
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -965,35 +960,34 @@
       <c r="Z4" t="n">
         <v>0</v>
       </c>
-      <c r="AA4" t="n">
-        <v>0</v>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>name:value</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
         <is>
           <t>emoloyee.png</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1016,14 +1010,14 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>45194</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>None</t>
@@ -1051,45 +1045,43 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>office</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>departments_id</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>departments_id</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>45194</v>
       </c>
       <c r="T5" s="2" t="n">
         <v>45194</v>
       </c>
-      <c r="U5" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="X5" t="n">
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1097,35 +1089,34 @@
       <c r="Z5" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>name:value</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
         <is>
           <t>emoloyee.png</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1148,14 +1139,14 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="n">
+      <c r="H6" s="2" t="n">
         <v>45196</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>None</t>
@@ -1183,45 +1174,43 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>office</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>departments_id</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>departments_id</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>45196</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>45196</v>
       </c>
-      <c r="U6" s="2" t="n">
-        <v>45196</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="X6" t="n">
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1229,35 +1218,34 @@
       <c r="Z6" t="n">
         <v>0</v>
       </c>
-      <c r="AA6" t="n">
-        <v>0</v>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>name:value</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
         <is>
           <t>emoloyee.png</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1280,14 +1268,14 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="H7" s="2" t="n">
         <v>45196</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>None</t>
@@ -1315,45 +1303,43 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>office</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>departments_id</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>departments_id</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>45196</v>
       </c>
       <c r="T7" s="2" t="n">
         <v>45196</v>
       </c>
-      <c r="U7" s="2" t="n">
-        <v>45196</v>
-      </c>
-      <c r="V7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="X7" t="n">
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1361,35 +1347,34 @@
       <c r="Z7" t="n">
         <v>0</v>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>name:value</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
         <is>
           <t>emoloyee.png</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1412,14 +1397,14 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="n">
+      <c r="H8" s="2" t="n">
         <v>45196</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>None</t>
@@ -1447,45 +1432,43 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>office</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>departments_id</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>departments_id</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>45196</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>45196</v>
       </c>
-      <c r="U8" s="2" t="n">
-        <v>45196</v>
-      </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="X8" t="n">
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1493,40 +1476,39 @@
       <c r="Z8" t="n">
         <v>0</v>
       </c>
-      <c r="AA8" t="n">
-        <v>0</v>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>name:value</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
         <is>
           <t>emoloyee.png</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>mike</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>mike</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1541,17 +1523,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>koshtech.site@gmail.com</t>
         </is>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="H9" s="2" t="n">
         <v>45197</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>None</t>
@@ -1579,83 +1561,80 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>office</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>departments_id</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>departments_id</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>45197</v>
       </c>
       <c r="T9" s="2" t="n">
         <v>45197</v>
       </c>
-      <c r="U9" s="2" t="n">
-        <v>45197</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="U9" t="n">
         <v>3</v>
       </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="X9" t="n">
+        <v>30000</v>
       </c>
       <c r="Y9" t="n">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AA9" t="n">
         <v>1000</v>
       </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>name:value</t>
+          <t>incomplete</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
-        <is>
-          <t>incomplete</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
         <is>
           <t>emp_images/Capture_V2ZvJu3.PNG</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1675,17 +1654,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>none@gmail.com</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="H10" s="2" t="n">
         <v>45200</v>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>None</t>
@@ -1713,47 +1692,45 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>office</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>departments_id</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>departments_id</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="U10" s="2" t="n">
-        <v>45200</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="U10" t="n">
         <v>3</v>
       </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="X10" t="n">
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1761,35 +1738,34 @@
       <c r="Z10" t="n">
         <v>0</v>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>name:value</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
         <is>
           <t>employee.png</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>020</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1812,14 +1788,14 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="n">
+      <c r="H11" s="2" t="n">
         <v>45212</v>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>None</t>
@@ -1847,45 +1823,43 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>office</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>departments_id</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>departments_id</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>45212</v>
       </c>
       <c r="T11" s="2" t="n">
         <v>45212</v>
       </c>
-      <c r="U11" s="2" t="n">
-        <v>45212</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="X11" t="n">
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1893,24 +1867,502 @@
       <c r="Z11" t="n">
         <v>0</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0</v>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>emoloyee.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Antony</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kungu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35704078.0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>tonykungu2@gmail.com</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>712110972.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Maxwell</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>12458901.0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>7899256677.0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>seller</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>sales department</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>undergraduate</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>name:value</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>emp_images/Capture.PNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Gathungu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>tonykungu2@gmail.com</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>departments_id</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
         <is>
           <t>emoloyee.png</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>deduction_per_day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>expected_days</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>leave_days</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>remarks</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>clock_in_latitude</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>clock_in_longitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>24</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-1.3828096</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>36.7722496</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>300</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/HRM_SYS/media/emp_temp/employee_template.xlsx
+++ b/HRM_SYS/media/emp_temp/employee_template.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>koshtech.site@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
@@ -652,9 +652,15 @@
           <t>None</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>None</t>
@@ -666,7 +672,9 @@
       <c r="T2" s="2" t="n">
         <v>45234</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
           <t>None</t>

--- a/HRM_SYS/media/emp_temp/employee_template.xlsx
+++ b/HRM_SYS/media/emp_temp/employee_template.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE71"/>
+  <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,40 +597,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8536197</t>
+          <t>23858093</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMILY</t>
+          <t>CATHERINE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>WANJA NJUKI</t>
+          <t>WANGAI KASIMBA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8536197</t>
+          <t>23858093</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A003486300L</t>
+          <t>A006458481J</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>emilywanja0@gmail.com</t>
+          <t>kasimbawangai@gmail.com</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>24116</v>
+        <v>30849</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -639,12 +639,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>721414474.0</t>
+          <t>700172222.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ALLAN MURITHI</t>
+          <t>ELIZABETH KANINI KASIMBA</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0710141 300</t>
+          <t>728233875</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -668,13 +668,13 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -685,23 +685,23 @@
         <v>42370</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>47802</v>
+        <v>47808</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>210161248975.0</t>
+          <t>900194642846.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>EQUITY BANK:CHUKA</t>
+          <t>EQUITY BANK:TALA</t>
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>25000</v>
+        <v>29825.85</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -724,40 +724,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12768679</t>
+          <t>20370257</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ISAAC</t>
+          <t>DUNCAN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MBITHI NDAMBUKI</t>
+          <t>NGUNO KAMAU</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12768679</t>
+          <t>20370257</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A003486269H</t>
+          <t>A004402786W</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>isaacmbithi35@yahoo.com</t>
+          <t>nguno.kamau@gmail.com</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>26806</v>
+        <v>28397</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -766,12 +766,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>727007706.0</t>
+          <t>727704952.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ANN MUMBI</t>
+          <t>LUCY WANJIKU</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0710940 000</t>
+          <t>0726466 291</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>5</v>
@@ -812,23 +812,23 @@
         <v>42370</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>47804</v>
+        <v>47809</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1109002621600.0</t>
+          <t>100330687400.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>CO-OPERATIVE BANK:CO-OP HOUSE</t>
+          <t>STANDARD CHARTERD :MOI AVENUE</t>
         </is>
       </c>
       <c r="Y3" t="n">
-        <v>32000</v>
+        <v>115000</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
@@ -851,40 +851,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22022478</t>
+          <t>25876785</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RUTH</t>
+          <t>MERCY</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>KWAMBOKA NYAKUNDI</t>
+          <t>WANJIRU NGEERA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22022478</t>
+          <t>25876785</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A003486193G</t>
+          <t>A006617162D</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ruthiekwam@yahoo.com</t>
+          <t>wanjirungeera@yahoo.com</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>29268</v>
+        <v>32047</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -893,12 +893,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>723174800.0</t>
+          <t>710416417.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>CATHERINE MORAA</t>
+          <t>NAFTALI NGEERA</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0724477 546</t>
+          <t>0727622 836</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -925,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>5</v>
@@ -939,23 +939,23 @@
         <v>42370</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>47805</v>
+        <v>47810</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>350191319170.0</t>
+          <t>870197797513.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>EQUITY BANK:KNUT HOUSE</t>
+          <t>EQUITY BANK:RUIRU</t>
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -978,40 +978,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23858093</t>
+          <t>28472081</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CATHERINE</t>
+          <t>EMMANUEL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>WANGAI KASIMBA</t>
+          <t>KYANIA MUMO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23858093</t>
+          <t>28472081</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A006458481J</t>
+          <t>A007571884E</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>kasimbawangai@gmail.com</t>
+          <t>emkyania@gmail.com</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>30849</v>
+        <v>33232</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>700172222.0</t>
+          <t>729925256.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ELIZABETH KANINI KASIMBA</t>
+          <t>STELLAH MUMO</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>728233875</t>
+          <t>0710919 484</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
       </c>
       <c r="R5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1066,23 +1066,23 @@
         <v>42370</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>47808</v>
+        <v>47811</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>900194642846.0</t>
+          <t>600196880268.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>EQUITY BANK:TALA</t>
+          <t>EQUITY BANK:MACHAKOS</t>
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>29825.85</v>
+        <v>17600</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -1105,40 +1105,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20370257</t>
+          <t>13058322</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DUNCAN</t>
+          <t>LILIAN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NGUNO KAMAU</t>
+          <t>AKINYI ODHIAMBO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20370257</t>
+          <t>13058322</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A004402786W</t>
+          <t>A009219830X</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>nguno.kamau@gmail.com</t>
+          <t>lilianakinyiodhiambo16@gmail.com</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>28397</v>
+        <v>25585</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1147,12 +1147,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>727704952.0</t>
+          <t>715608985.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>LUCY WANJIKU</t>
+          <t>ALICE AWUOR</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0726466 291</t>
+          <t>772375383</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R6" t="n">
         <v>5</v>
@@ -1193,23 +1193,23 @@
         <v>42370</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>47809</v>
+        <v>47812</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>100330687400.0</t>
+          <t>1290162359052.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>STANDARD CHARTERD :MOI AVENUE</t>
+          <t xml:space="preserve">EQUITY BANK:KENYATTA AVENUE </t>
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>115000</v>
+        <v>20000</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -1232,40 +1232,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25876785</t>
+          <t>13841377</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MERCY</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WANJIRU NGEERA</t>
+          <t>WANGARI NDIRANGU</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25876785</t>
+          <t>13841377</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A006617162D</t>
+          <t>A006812152T</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>wanjirungeera@yahoo.com</t>
+          <t>wangarindirangu76@gmail.com</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>32047</v>
+        <v>27921</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>710416417.0</t>
+          <t>710439296.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>NAFTALI NGEERA</t>
+          <t>PETER KIAMBATI</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0727622 836</t>
+          <t>720793513</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1306,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R7" t="n">
         <v>5</v>
@@ -1320,23 +1320,23 @@
         <v>42370</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>47810</v>
+        <v>47813</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>870197797513.0</t>
+          <t>1109462632100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>EQUITY BANK:RUIRU</t>
+          <t>CO-OPERATIVE BANK:GITHURAI</t>
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -1359,40 +1359,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>28472081</t>
+          <t>28087116</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EMMANUEL</t>
+          <t>BEATRICE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>KYANIA MUMO</t>
+          <t>SYOKUYA KASIMBA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28472081</t>
+          <t>28087116</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A007571884E</t>
+          <t>A008668888D</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>emkyania@gmail.com</t>
+          <t>bettykasimba7@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>33232</v>
+        <v>33103</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>729925256.0</t>
+          <t>715527040.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>STELLAH MUMO</t>
+          <t>CALEB MANGA</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0710919 484</t>
+          <t>705529908</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1430,13 +1430,13 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1447,14 +1447,14 @@
         <v>42370</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>47811</v>
+        <v>47814</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>600196880268.0</t>
+          <t>600172238939.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>17600</v>
+        <v>15600</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -1486,40 +1486,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13058322</t>
+          <t>29830528</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LILIAN</t>
+          <t>KITONGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AKINYI ODHIAMBO</t>
+          <t>NELLYJOY KENDI</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13058322</t>
+          <t>29830528</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A009219830X</t>
+          <t>A009877312D</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>lilianakinyiodhiambo16@gmail.com</t>
+          <t>Nellyjoy2016@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>25585</v>
+        <v>34240</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1528,12 +1528,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>715608985.0</t>
+          <t>710451805.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ALICE AWUOR</t>
+          <t>JUDITH KAARI MBUBA</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>772375383</t>
+          <t>713410930</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1571,26 +1571,26 @@
         </is>
       </c>
       <c r="T9" s="2" t="n">
-        <v>42370</v>
+        <v>42480</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>47812</v>
+        <v>47815</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1290162359052.0</t>
+          <t>1109560955600.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUITY BANK:KENYATTA AVENUE </t>
+          <t>CO-OPERATIVE BANK:KIKUYU</t>
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>20000</v>
+        <v>18600</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -1613,40 +1613,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13841377</t>
+          <t>30136865</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>WANJOHI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>WANGARI NDIRANGU</t>
+          <t>JOY WANJIRA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13841377</t>
+          <t>30136865</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A006812152T</t>
+          <t>A008191391Z</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>wangarindirangu76@gmail.com</t>
+          <t>joywanjohi53@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>27921</v>
+        <v>34236</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>710439296.0</t>
+          <t>717907043.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PETER KIAMBATI</t>
+          <t>NANCY WAMBUI NYAMU</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>720793513</t>
+          <t>720540492</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1687,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>5</v>
@@ -1698,27 +1698,25 @@
         </is>
       </c>
       <c r="T10" s="2" t="n">
-        <v>42370</v>
+        <v>42464</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>47813</v>
+        <v>47816</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1109462632100.0</t>
+          <t>710172603338.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>CO-OPERATIVE BANK:GITHURAI</t>
-        </is>
-      </c>
-      <c r="Y10" t="n">
-        <v>30000</v>
-      </c>
+          <t>EQUITY BANK:GITHURAI</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
@@ -1740,40 +1738,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28087116</t>
+          <t>22071939</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BEATRICE</t>
+          <t>NGUGI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SYOKUYA KASIMBA</t>
+          <t>RUTH ABRAHAM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28087116</t>
+          <t>22071939</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A008668888D</t>
+          <t>A0044507574G</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>bettykasimba7@gmail.com</t>
+          <t>ruthabraham804@gmail.com</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>33103</v>
+        <v>29754</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1782,12 +1780,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>715527040.0</t>
+          <t>720325627.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CALEB MANGA</t>
+          <t>NEOPRESTONE MUNENE</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1797,7 +1795,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>705529908</t>
+          <t>715869255</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1811,13 +1809,13 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
       </c>
       <c r="R11" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1825,26 +1823,26 @@
         </is>
       </c>
       <c r="T11" s="2" t="n">
-        <v>42370</v>
+        <v>42618</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>47814</v>
+        <v>47817</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>600172238939.0</t>
+          <t>210101510103.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>EQUITY BANK:MACHAKOS</t>
+          <t>EQUITY BANK:MWINGI</t>
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>15600</v>
+        <v>25000</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
@@ -1867,40 +1865,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29830528</t>
+          <t>21664195</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>KITONGA</t>
+          <t>OCHIENG</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NELLYJOY KENDI</t>
+          <t>HELLEN ATIENO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29830528</t>
+          <t>21664195</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A009877312D</t>
+          <t>A0075728671</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nellyjoy2016@gmail.com</t>
+          <t>hellenochieng21@gmail.com</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>34240</v>
+        <v>28246</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1909,12 +1907,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>710451805.0</t>
+          <t>718511266.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>JUDITH KAARI MBUBA</t>
+          <t>PAUL NZIVU KATIWA</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1924,7 +1922,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>713410930</t>
+          <t>715234645</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1938,13 +1936,13 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
       </c>
       <c r="R12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1952,26 +1950,26 @@
         </is>
       </c>
       <c r="T12" s="2" t="n">
-        <v>42480</v>
+        <v>42552</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>47815</v>
+        <v>47818</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1109560955600.0</t>
+          <t>900160688348.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>CO-OPERATIVE BANK:KIKUYU</t>
+          <t>EQUITY BANK:TALA</t>
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>18600</v>
+        <v>15600</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -1994,40 +1992,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>30136865</t>
+          <t>33334507</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WANJOHI</t>
+          <t>WAMBUI</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JOY WANJIRA</t>
+          <t>JOE NGURURI</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30136865</t>
+          <t>33334507</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A008191391Z</t>
+          <t>A011727760E</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>joywanjohi53@gmail.com</t>
+          <t>joengururi@gmail.com</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>34236</v>
+        <v>31779</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -2036,12 +2034,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>717907043.0</t>
+          <t>708690386.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>NANCY WAMBUI NYAMU</t>
+          <t>JANE WAMBUI NGURURI</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2051,7 +2049,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>720540492</t>
+          <t>718803755.0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2065,13 +2063,13 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -2079,25 +2077,27 @@
         </is>
       </c>
       <c r="T13" s="2" t="n">
-        <v>42464</v>
+        <v>42892</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>47816</v>
+        <v>47820</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>710172603338.0</t>
+          <t>900175872797.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>EQUITY BANK:GITHURAI</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr"/>
+          <t>EQUITY BANK:TALA</t>
+        </is>
+      </c>
+      <c r="Y13" t="n">
+        <v>20000</v>
+      </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
@@ -2119,40 +2119,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22071939</t>
+          <t>29964624</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NGUGI</t>
+          <t>MUKAMI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RUTH ABRAHAM</t>
+          <t>CAROLINE NYAKIO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>22071939</t>
+          <t>29964624</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A0044507574G</t>
+          <t>A007492421M</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ruthabraham804@gmail.com</t>
+          <t>nyakiocaro@gmail.com</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>29754</v>
+        <v>34181</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>720325627.0</t>
+          <t>705172036.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>NEOPRESTONE MUNENE</t>
+          <t>FLORENCE MUKAMI</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>715869255</t>
+          <t>712484448.0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2190,13 +2190,13 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q14" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="R14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2204,26 +2204,26 @@
         </is>
       </c>
       <c r="T14" s="2" t="n">
-        <v>42618</v>
+        <v>42933</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>47817</v>
+        <v>47821</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>210101510103.0</t>
+          <t>210161216882.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>EQUITY BANK:MWINGI</t>
+          <t>EQUITY BANK:EMBU</t>
         </is>
       </c>
       <c r="Y14" t="n">
-        <v>25000</v>
+        <v>17600</v>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
@@ -2246,40 +2246,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21664195</t>
+          <t>31236286</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OCHIENG</t>
+          <t>NTHAMBI</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HELLEN ATIENO</t>
+          <t>FELIX NJERU</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>21664195</t>
+          <t>31236286</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A0075728671</t>
+          <t>A009330799</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>hellenochieng21@gmail.com</t>
+          <t>felixnjeru5@gmail.com</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>28246</v>
+        <v>34518</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>718511266.0</t>
+          <t>703347289.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>PAUL NZIVU KATIWA</t>
+          <t>JOEL NJERU</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>715234645</t>
+          <t>718382721.0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q15" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="R15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -2331,26 +2331,26 @@
         </is>
       </c>
       <c r="T15" s="2" t="n">
-        <v>42552</v>
+        <v>43451</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>47818</v>
+        <v>47824</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>900160688348.0</t>
+          <t>340176751194.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>EQUITY BANK:TALA</t>
+          <t>EQUITY BANK:MWINGI</t>
         </is>
       </c>
       <c r="Y15" t="n">
-        <v>15600</v>
+        <v>23232</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
@@ -2373,40 +2373,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>33334507</t>
+          <t>34925541</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WAMBUI</t>
+          <t>STEPHEN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>JOE NGURURI</t>
+          <t>PHYLLIS MINOO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33334507</t>
+          <t>34925541</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A011727760E</t>
+          <t>A013083972S</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>joengururi@gmail.com</t>
+          <t>phyllisafari@gmail.com</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>31779</v>
+        <v>35653</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2415,12 +2415,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>708690386.0</t>
+          <t>746112475.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>JANE WAMBUI NGURURI</t>
+          <t>GEOFFREY MWONGELA</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>718803755.0</t>
+          <t>712456979.0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2444,13 +2444,13 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q16" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -2458,26 +2458,26 @@
         </is>
       </c>
       <c r="T16" s="2" t="n">
-        <v>42892</v>
+        <v>43452</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>47820</v>
+        <v>47825</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>900175872797.0</t>
+          <t>670178618071.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>EQUITY BANK:TALA</t>
+          <t>EQUITY BANK:WOTE</t>
         </is>
       </c>
       <c r="Y16" t="n">
-        <v>20000</v>
+        <v>15600</v>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
@@ -2500,40 +2500,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>29964624</t>
+          <t>31855985</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MUKAMI</t>
+          <t>MUINDE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CAROLINE NYAKIO</t>
+          <t>RACHAEL NZULA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29964624</t>
+          <t>31855985</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A007492421M</t>
+          <t>A008735731C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>nyakiocaro@gmail.com</t>
+          <t>rachelmuinde40@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>34181</v>
+        <v>34016</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2542,12 +2542,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>705172036.0</t>
+          <t>729426140.0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>FLORENCE MUKAMI</t>
+          <t>ESTHER MUINDE</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>712484448.0</t>
+          <t>715407187.0</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2571,40 +2571,40 @@
         </is>
       </c>
       <c r="P17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q17" t="n">
         <v>13</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>7</v>
       </c>
-      <c r="R17" t="n">
-        <v>15</v>
-      </c>
       <c r="S17" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
       <c r="T17" s="2" t="n">
-        <v>42933</v>
+        <v>43453</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>47821</v>
+        <v>47826</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>210161216882.0</t>
+          <t>720179840263.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>EQUITY BANK:EMBU</t>
+          <t>EQUITY BANK:KITUI</t>
         </is>
       </c>
       <c r="Y17" t="n">
-        <v>17600</v>
+        <v>23944.63</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
@@ -2627,40 +2627,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31236286</t>
+          <t>33980247</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NTHAMBI</t>
+          <t>MBAKA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FELIX NJERU</t>
+          <t>DON KIMATHI</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31236286</t>
+          <t>33980247</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A009330799</t>
+          <t>A011351172E</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>felixnjeru5@gmail.com</t>
+          <t>donkimathi10@gmail.com</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>34518</v>
+        <v>35530</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2669,12 +2669,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>703347289.0</t>
+          <t>703364275.0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>JOEL NJERU</t>
+          <t>NANCY GAKII</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>718382721.0</t>
+          <t>716717647.0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R18" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2712,26 +2712,26 @@
         </is>
       </c>
       <c r="T18" s="2" t="n">
-        <v>43451</v>
+        <v>43720</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>47824</v>
+        <v>47827</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>340176751194.0</t>
+          <t>210178964256.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>EQUITY BANK:MWINGI</t>
+          <t>EQUITY BANK:CHUKA</t>
         </is>
       </c>
       <c r="Y18" t="n">
-        <v>23232</v>
+        <v>15600</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
@@ -2754,40 +2754,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>34925541</t>
+          <t>30609693</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>STEPHEN</t>
+          <t>GITARI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PHYLLIS MINOO</t>
+          <t>JOLYDINE NJOKI</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34925541</t>
+          <t>30609693</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A013083972S</t>
+          <t>A009560526R</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>phyllisafari@gmail.com</t>
+          <t>njokijolydine@gmail.com</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>35653</v>
+        <v>34327</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2796,12 +2796,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>746112475.0</t>
+          <t>706342319.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>GEOFFREY MWONGELA</t>
+          <t>CAROLINE KENDI</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>712456979.0</t>
+          <t>713625632.0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2825,13 +2825,13 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="n">
         <v>8</v>
       </c>
       <c r="R19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2839,22 +2839,22 @@
         </is>
       </c>
       <c r="T19" s="2" t="n">
-        <v>43452</v>
+        <v>43684</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>47825</v>
+        <v>47828</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>670178618071.0</t>
+          <t>140161197029.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>EQUITY BANK:WOTE</t>
+          <t>EQUITY BANK:NAKURU</t>
         </is>
       </c>
       <c r="Y19" t="n">
@@ -2881,40 +2881,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>31855985</t>
+          <t>8536197</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MUINDE</t>
+          <t>EMILY</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RACHAEL NZULA</t>
+          <t>WANJA NJUKI</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>31855985</t>
+          <t>8536197</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A008735731C</t>
+          <t>A003486300L</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>rachelmuinde40@gmail.com</t>
+          <t>emilywanja0@gmail.com</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>34016</v>
+        <v>24116</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>729426140.0</t>
+          <t>721414474.0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>ESTHER MUINDE</t>
+          <t>ALLAN MURITHI</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>715407187.0</t>
+          <t>0710141 300</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
       </c>
       <c r="R20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2966,29 +2966,33 @@
         </is>
       </c>
       <c r="T20" s="2" t="n">
-        <v>43453</v>
+        <v>42370</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>47826</v>
+        <v>47802</v>
       </c>
       <c r="V20" t="n">
         <v>1</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>720179840263.0</t>
+          <t>210161248975.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>EQUITY BANK:KITUI</t>
+          <t>EQUITY BANK:CHUKA</t>
         </is>
       </c>
       <c r="Y20" t="n">
-        <v>23944.63</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
+        <v>25000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>name:value</t>
@@ -3004,44 +3008,48 @@
           <t>emoloyee.png</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>33980247</t>
+          <t>25081788</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MBAKA</t>
+          <t>MUSAU</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DON KIMATHI</t>
+          <t>RICHARD NYAMAI</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>33980247</t>
+          <t>25081788</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A011351172E</t>
+          <t>A004278289L</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>donkimathi10@gmail.com</t>
+          <t>ritchdavid@hotmail.com</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>35530</v>
+        <v>31778</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -3050,12 +3058,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>703364275.0</t>
+          <t>720788050.0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>NANCY GAKII</t>
+          <t>JOSEPHAT MAWEU</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3065,7 +3073,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>716717647.0</t>
+          <t>721735940</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3079,13 +3087,13 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -3093,26 +3101,26 @@
         </is>
       </c>
       <c r="T21" s="2" t="n">
-        <v>43720</v>
+        <v>42891</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>47827</v>
+        <v>47819</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>210178964256.0</t>
+          <t>600164572535.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>EQUITY BANK:CHUKA</t>
+          <t>EQUITY BANK:MACHAKOS</t>
         </is>
       </c>
       <c r="Y21" t="n">
-        <v>15600</v>
+        <v>50000</v>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
@@ -3135,40 +3143,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>30609693</t>
+          <t>12768679</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GITARI</t>
+          <t>ISAAC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>JOLYDINE NJOKI</t>
+          <t>MBITHI NDAMBUKI</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30609693</t>
+          <t>12768679</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A009560526R</t>
+          <t>A003486269H</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>njokijolydine@gmail.com</t>
+          <t>isaacmbithi35@yahoo.com</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>34327</v>
+        <v>26806</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -3177,72 +3185,76 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>706342319.0</t>
+          <t>727007706</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>CAROLINE KENDI</t>
+          <t>ANN MUMBI</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>713625632.0</t>
+          <t>0710940 000</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R22" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T22" s="2" t="n">
-        <v>43684</v>
+        <v>42370</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>47828</v>
+        <v>47804</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>140161197029.0</t>
+          <t>1109002621600</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>EQUITY BANK:NAKURU</t>
+          <t>CO-OPERATIVE BANK:CO-OP HOUSE</t>
         </is>
       </c>
       <c r="Y22" t="n">
-        <v>15600</v>
-      </c>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+        <v>32000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
       <c r="AB22" t="inlineStr">
         <is>
           <t>name:value</t>
@@ -3258,44 +3270,48 @@
           <t>emoloyee.png</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>25081788</t>
+          <t>22022478</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MUSAU</t>
+          <t>RUTH</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RICHARD NYAMAI</t>
+          <t>KWAMBOKA NYAKUNDI</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25081788</t>
+          <t>22022478</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A004278289L</t>
+          <t>A003486193G</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ritchdavid@hotmail.com</t>
+          <t>ruthiekwam@yahoo.com</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>31778</v>
+        <v>29268</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -3304,72 +3320,76 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>720788050.0</t>
+          <t>723174800</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>JOSEPHAT MAWEU</t>
+          <t>CATHERINE MORAA</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>721735940</t>
+          <t>0724477 546</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
         <v>5</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T23" s="2" t="n">
-        <v>42891</v>
+        <v>42370</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>47819</v>
+        <v>47805</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>600164572535.0</t>
+          <t>350191319170</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>EQUITY BANK:MACHAKOS</t>
+          <t>EQUITY BANK:KNUT HOUSE</t>
         </is>
       </c>
       <c r="Y23" t="n">
-        <v>50000</v>
-      </c>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
+        <v>35000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>name:value</t>
@@ -3385,7 +3405,11 @@
           <t>emoloyee.png</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -9478,6 +9502,133 @@
         </is>
       </c>
       <c r="AE71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>149</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>32482927.0</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>KELVINN</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>KIMAITA MBAABU</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>32482927.0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>kimaitakelvin21@gmail.com</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>34067</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>undisclosed</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>718587665.0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>LINET KARIMI</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>7420798848.0</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>22</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T72" s="2" t="n">
+        <v>45064</v>
+      </c>
+      <c r="U72" s="2" t="n">
+        <v>47804</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2</v>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y72" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>name:value</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>emoloyee.png</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9490,7 +9641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10535,6 +10686,51 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>35704081</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10:49:18</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10:49:18</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>24</v>
+      </c>
+      <c r="G22" t="n">
+        <v>21</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.344</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
